--- a/datos_fbref/CLASIFICACION_LIGA_Eredivisie.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_Eredivisie.xlsx
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1085,31 +1085,31 @@
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="J12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K12" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L W L D L</t>
+          <t>W L D L W</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>10638</v>
+        <v>10558</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Kaj Sierhuis - 8</t>
+          <t>Kaj Sierhuis - 9</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
@@ -1138,26 +1138,26 @@
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I13" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="J13" t="n">
         <v>26</v>
       </c>
       <c r="K13" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>D D D W L</t>
+          <t>D D W L L</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Noah Naujoks - 6</t>
+          <t>Noah Naujoks - 7</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
